--- a/STLx/Template/Summary.xlsx
+++ b/STLx/Template/Summary.xlsx
@@ -555,7 +555,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,6 +580,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,7 +898,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,16 +912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -984,7 +984,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1014,334 +1014,334 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="30">
+      <c r="B13" s="26"/>
+      <c r="C13" s="29">
         <f>SUM(C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f t="shared" ref="D13:F13" si="1">SUM(D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f>SUM(G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30">
+      <c r="B15" s="26"/>
+      <c r="C15" s="29">
         <f>SUM(C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f t="shared" ref="D15:F15" si="2">SUM(D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f>SUM(G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30">
+      <c r="B17" s="26"/>
+      <c r="C17" s="29">
         <f>SUM(C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f>SUM(D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f t="shared" ref="E17:F17" si="3">SUM(E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f>SUM(G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30">
+      <c r="B19" s="26"/>
+      <c r="C19" s="29">
         <f>SUM(C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <f t="shared" ref="D19:F19" si="4">SUM(D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f>SUM(G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29">
         <f>SUM(C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f t="shared" ref="D21:F21" si="5">SUM(D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f>SUM(G20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="32">
+      <c r="B32" s="27"/>
+      <c r="C32" s="31">
         <f>SUM(C22:C31)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <f>SUM(D22:D31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <f>SUM(E22:E31)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <f>SUM(F22:F31)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <f>SUM(G22:G31)</f>
         <v>0</v>
       </c>
@@ -1350,8 +1350,8 @@
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="33">
+      <c r="B33" s="25"/>
+      <c r="C33" s="32">
         <f>C13+C15+C17+C19+C21+C32</f>
         <v>0</v>
       </c>
@@ -1367,7 +1367,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="24">
         <f>G13+G15+G17+G19+G21+G32</f>
         <v>0</v>
       </c>

--- a/STLx/Template/Summary.xlsx
+++ b/STLx/Template/Summary.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaskRider\App\STL Auto\STLx\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3100BA13-4B54-4578-B322-A7C0AD6EC55F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Type</t>
   </si>
@@ -127,13 +133,106 @@
   </si>
   <si>
     <t>arabic</t>
+  </si>
+  <si>
+    <t>arabic11</t>
+  </si>
+  <si>
+    <t>arabic12</t>
+  </si>
+  <si>
+    <t>arabic13</t>
+  </si>
+  <si>
+    <t>arabic14</t>
+  </si>
+  <si>
+    <t>arabic15</t>
+  </si>
+  <si>
+    <t>arabic16</t>
+  </si>
+  <si>
+    <t>arabic17</t>
+  </si>
+  <si>
+    <t>arabic18</t>
+  </si>
+  <si>
+    <t>arabic19</t>
+  </si>
+  <si>
+    <t>arabic20</t>
+  </si>
+  <si>
+    <t>arabic21</t>
+  </si>
+  <si>
+    <t>arabic22</t>
+  </si>
+  <si>
+    <t>arabic23</t>
+  </si>
+  <si>
+    <t>arabic24</t>
+  </si>
+  <si>
+    <t>arabic25</t>
+  </si>
+  <si>
+    <t>arabic26</t>
+  </si>
+  <si>
+    <t>arabic27</t>
+  </si>
+  <si>
+    <t>arabic28</t>
+  </si>
+  <si>
+    <t>arabic29</t>
+  </si>
+  <si>
+    <t>arabic30</t>
+  </si>
+  <si>
+    <t>arabic31</t>
+  </si>
+  <si>
+    <t>arabic32</t>
+  </si>
+  <si>
+    <t>arabic33</t>
+  </si>
+  <si>
+    <t>arabic34</t>
+  </si>
+  <si>
+    <t>arabic35</t>
+  </si>
+  <si>
+    <t>arabic36</t>
+  </si>
+  <si>
+    <t>arabic37</t>
+  </si>
+  <si>
+    <t>arabic38</t>
+  </si>
+  <si>
+    <t>arabic39</t>
+  </si>
+  <si>
+    <t>arabic40</t>
+  </si>
+  <si>
+    <t>arabic41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,10 +676,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,21 +986,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -911,20 +1010,20 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -950,7 +1049,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -959,7 +1058,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -968,7 +1067,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -984,13 +1083,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1125,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1164,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1203,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1242,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1281,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>24</v>
       </c>
@@ -1221,7 +1320,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
         <v>10</v>
@@ -1232,7 +1331,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
         <v>25</v>
@@ -1243,7 +1342,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="34" t="s">
         <v>26</v>
@@ -1254,7 +1353,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="34" t="s">
         <v>27</v>
@@ -1265,7 +1364,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="34" t="s">
         <v>28</v>
@@ -1276,7 +1375,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="34" t="s">
         <v>29</v>
@@ -1287,7 +1386,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
         <v>30</v>
@@ -1298,7 +1397,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="34" t="s">
         <v>31</v>
@@ -1309,7 +1408,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="34" t="s">
         <v>32</v>
@@ -1320,55 +1419,396 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="31">
-        <f>SUM(C22:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
-        <f>SUM(D22:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
-        <f>SUM(E22:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <f>SUM(F22:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <f>SUM(G22:G31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="31">
+        <f>SUM(C22:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="22">
+        <f>SUM(D22:D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
+        <f>SUM(E22:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <f>SUM(F22:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="23">
+        <f>SUM(G22:G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="32">
-        <f>C13+C15+C17+C19+C21+C32</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <f t="shared" ref="D33:F33" si="6">D13+D15+D17+D19+D21+D32</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="B64" s="25"/>
+      <c r="C64" s="32">
+        <f>C13+C15+C17+C19+C21+C63</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" ref="D64:F64" si="6">D13+D15+D17+D19+D21+D63</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F64" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="24">
-        <f>G13+G15+G17+G19+G21+G32</f>
+      <c r="G64" s="24">
+        <f>G13+G15+G17+G19+G21+G63</f>
         <v>0</v>
       </c>
     </row>

--- a/STLx/Template/Summary.xlsx
+++ b/STLx/Template/Summary.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MaskRider\App\STL Auto\STLx\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3100BA13-4B54-4578-B322-A7C0AD6EC55F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -231,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,21 +980,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1010,7 +1004,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
@@ -1022,8 +1016,8 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1043,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1052,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1067,29 +1061,17 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15">
-        <f>SUM(B4:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <f t="shared" ref="C7:E7" si="0">SUM(C4:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
@@ -1125,33 +1107,18 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="29">
-        <f>SUM(C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <f t="shared" ref="D13:F13" si="1">SUM(D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <f>SUM(G12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="29"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
@@ -1164,33 +1131,18 @@
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="29">
-        <f>SUM(C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" ref="D15:F15" si="2">SUM(D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <f>SUM(G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="29"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
         <v>18</v>
       </c>
@@ -1203,33 +1155,18 @@
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="26"/>
-      <c r="C17" s="29">
-        <f>SUM(C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="18">
-        <f>SUM(D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" ref="E17:F17" si="3">SUM(E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <f>SUM(G16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="29"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
@@ -1242,33 +1179,18 @@
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="29">
-        <f>SUM(C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="18">
-        <f t="shared" ref="D19:F19" si="4">SUM(D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <f>SUM(G18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="29"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="33" t="s">
         <v>22</v>
       </c>
@@ -1281,33 +1203,18 @@
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="29">
-        <f>SUM(C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
-        <f t="shared" ref="D21:F21" si="5">SUM(D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <f>SUM(G20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="29"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="33" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1227,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
         <v>10</v>
@@ -1331,7 +1238,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
         <v>25</v>
@@ -1342,7 +1249,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="33"/>
       <c r="B25" s="34" t="s">
         <v>26</v>
@@ -1353,7 +1260,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="34" t="s">
         <v>27</v>
@@ -1364,7 +1271,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="34" t="s">
         <v>28</v>
@@ -1375,7 +1282,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="33"/>
       <c r="B28" s="34" t="s">
         <v>29</v>
@@ -1386,7 +1293,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
         <v>30</v>
@@ -1397,7 +1304,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="33"/>
       <c r="B30" s="34" t="s">
         <v>31</v>
@@ -1408,7 +1315,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="34" t="s">
         <v>32</v>
@@ -1419,7 +1326,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
         <v>36</v>
@@ -1430,7 +1337,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="34" t="s">
         <v>37</v>
@@ -1441,7 +1348,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
         <v>38</v>
@@ -1452,7 +1359,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>39</v>
@@ -1463,7 +1370,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>40</v>
@@ -1474,7 +1381,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
         <v>41</v>
@@ -1485,7 +1392,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
         <v>42</v>
@@ -1496,7 +1403,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
         <v>43</v>
@@ -1507,7 +1414,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="33"/>
       <c r="B40" s="34" t="s">
         <v>44</v>
@@ -1518,7 +1425,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="34" t="s">
         <v>45</v>
@@ -1529,7 +1436,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="33"/>
       <c r="B42" s="34" t="s">
         <v>46</v>
@@ -1540,7 +1447,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="33"/>
       <c r="B43" s="34" t="s">
         <v>47</v>
@@ -1551,7 +1458,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="s">
         <v>48</v>
@@ -1562,7 +1469,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="s">
         <v>49</v>
@@ -1573,7 +1480,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="34" t="s">
         <v>50</v>
@@ -1584,7 +1491,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="34" t="s">
         <v>51</v>
@@ -1595,7 +1502,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="33"/>
       <c r="B48" s="34" t="s">
         <v>52</v>
@@ -1606,7 +1513,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="34" t="s">
         <v>53</v>
@@ -1617,7 +1524,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="33"/>
       <c r="B50" s="34" t="s">
         <v>54</v>
@@ -1628,7 +1535,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="33"/>
       <c r="B51" s="34" t="s">
         <v>55</v>
@@ -1639,7 +1546,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="33"/>
       <c r="B52" s="34" t="s">
         <v>56</v>
@@ -1650,7 +1557,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="34" t="s">
         <v>57</v>
@@ -1661,7 +1568,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="34" t="s">
         <v>58</v>
@@ -1672,7 +1579,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="34" t="s">
         <v>59</v>
@@ -1683,7 +1590,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="33"/>
       <c r="B56" s="34" t="s">
         <v>60</v>
@@ -1694,7 +1601,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="33"/>
       <c r="B57" s="34" t="s">
         <v>61</v>
@@ -1705,7 +1612,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="s">
         <v>62</v>
@@ -1716,7 +1623,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="33"/>
       <c r="B59" s="34" t="s">
         <v>63</v>
@@ -1727,7 +1634,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="34" t="s">
         <v>64</v>
@@ -1738,7 +1645,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="34" t="s">
         <v>65</v>
@@ -1749,7 +1656,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="33"/>
       <c r="B62" s="34" t="s">
         <v>66</v>
@@ -1760,7 +1667,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1">
       <c r="A63" s="21" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
@@ -1796,15 +1703,15 @@
         <v>0</v>
       </c>
       <c r="D64" s="15">
-        <f t="shared" ref="D64:F64" si="6">D13+D15+D17+D19+D21+D63</f>
+        <f>D13+D15+D17+D19+D21+D63</f>
         <v>0</v>
       </c>
       <c r="E64" s="15">
-        <f t="shared" si="6"/>
+        <f>E13+E15+E17+E19+E21+E63</f>
         <v>0</v>
       </c>
       <c r="F64" s="15">
-        <f t="shared" si="6"/>
+        <f>F13+F15+F17+F19+F21+F63</f>
         <v>0</v>
       </c>
       <c r="G64" s="24">

--- a/STLx/Template/Summary.xlsx
+++ b/STLx/Template/Summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Type</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>arabic</t>
   </si>
   <si>
     <t>arabic11</t>
@@ -631,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,14 +646,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -674,6 +667,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1001,20 +1000,21 @@
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="36"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -1068,16 +1068,12 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="38"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1090,605 +1086,595 @@
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="30"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="26"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="30"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="26"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="30"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="26"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="30"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="26"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="30"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="26"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="30"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="26"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="30"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="26"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="30"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="26"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="26"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="30"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="26"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="26"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="30"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="26"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="26"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="30"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="26"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="30"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="26"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="26"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="30"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="26"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="30"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="26"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="30"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="26"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="30"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="26"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="40"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="30"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="26"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="30"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="26"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="26"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="30"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="26"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="30"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="26"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="30"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="26"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="30"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="26"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="11"/>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="30"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="26"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="30"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="26"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="40"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="26"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="40"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="30"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="26"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="31">
+      <c r="B63" s="23"/>
+      <c r="C63" s="27">
         <f>SUM(C22:C62)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="20">
         <f>SUM(D22:D62)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="20">
         <f>SUM(E22:E62)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="20">
         <f>SUM(F22:F62)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="41">
         <f>SUM(G22:G62)</f>
         <v>0</v>
       </c>
@@ -1697,8 +1683,8 @@
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="32">
+      <c r="B64" s="21"/>
+      <c r="C64" s="28">
         <f>C13+C15+C17+C19+C21+C63</f>
         <v>0</v>
       </c>
@@ -1714,7 +1700,7 @@
         <f>F13+F15+F17+F19+F21+F63</f>
         <v>0</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="37">
         <f>G13+G15+G17+G19+G21+G63</f>
         <v>0</v>
       </c>
